--- a/second_tour_website/website/upload/donees.xlsx
+++ b/second_tour_website/website/upload/donees.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,6 +1657,60 @@
       <c r="G45" t="inlineStr">
         <is>
           <t>12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="n">
+        <v>16</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="n">
+        <v>18</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>15:30</t>
         </is>
       </c>
     </row>

--- a/second_tour_website/website/upload/donees.xlsx
+++ b/second_tour_website/website/upload/donees.xlsx
@@ -432,1289 +432,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id_creneau</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>id_candidat</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>id_matiere</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>id_salle</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>debut_preparation</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>09:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>11:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>22</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>21</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>21</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12</v>
-      </c>
-      <c r="E11" t="n">
-        <v>12</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>19</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>18</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>17</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>15</v>
-      </c>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>9</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11</v>
-      </c>
-      <c r="E21" t="n">
-        <v>11</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>9</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>6</v>
-      </c>
-      <c r="D23" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>9</v>
-      </c>
-      <c r="E24" t="n">
-        <v>9</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>10</v>
-      </c>
-      <c r="E25" t="n">
-        <v>10</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>7</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="n">
-        <v>6</v>
-      </c>
-      <c r="E27" t="n">
-        <v>8</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>8</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>9</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>9</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>10</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>3</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>11</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>11</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6</v>
-      </c>
-      <c r="E35" t="n">
-        <v>8</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>12</v>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>12</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6</v>
-      </c>
-      <c r="E37" t="n">
-        <v>8</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>13</v>
-      </c>
-      <c r="D38" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>7</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" t="n">
-        <v>13</v>
-      </c>
-      <c r="D39" t="n">
-        <v>6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>8</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" t="n">
-        <v>14</v>
-      </c>
-      <c r="D40" t="n">
-        <v>5</v>
-      </c>
-      <c r="E40" t="n">
-        <v>7</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" t="n">
-        <v>14</v>
-      </c>
-      <c r="D41" t="n">
-        <v>7</v>
-      </c>
-      <c r="E41" t="n">
-        <v>5</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="n">
-        <v>24</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="n">
-        <v>24</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" t="n">
-        <v>5</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="n">
-        <v>26</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="n">
-        <v>26</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="n">
-        <v>16</v>
-      </c>
-      <c r="D46" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" t="n">
-        <v>10</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="n">
-        <v>18</v>
-      </c>
-      <c r="D47" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" t="n">
-        <v>10</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1765,23 +490,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Huon</t>
+          <t>Oumiri</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Guimond</t>
+          <t>Hakim</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1789,23 +514,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pinette</t>
+          <t>Garland</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Agathe</t>
+          <t>Gamelin</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1813,20 +538,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jalbert</t>
+          <t>Huon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Arienne</t>
+          <t>Guimond</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1837,16 +562,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bernard</t>
+          <t>Pinette</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Noémie</t>
+          <t>Agathe</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1861,20 +586,20 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gousse</t>
+          <t>Allain</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maurice</t>
+          <t>Clothilde</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1885,20 +610,20 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Le mendes</t>
+          <t>Jalbert</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Isaac</t>
+          <t>Arienne</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1909,20 +634,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Guillot</t>
+          <t>Bernard</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Henri</t>
+          <t>Noémie</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1933,20 +658,20 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Foucher</t>
+          <t>Gousse</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1957,20 +682,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Duhamel</t>
+          <t>Le mendes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Claire</t>
+          <t>Isaac</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1981,20 +706,20 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pons</t>
+          <t>Guillot</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sebastien</t>
+          <t>Henri</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2005,16 +730,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Foucher</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Noémie</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -2029,20 +754,20 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lefebvre</t>
+          <t>Duhamel</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Gilles</t>
+          <t>Claire</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2053,20 +778,20 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Devaux</t>
+          <t>Pons</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Sebastien</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2077,20 +802,20 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Labbe</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Noémie</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2101,16 +826,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gomes</t>
+          <t>Lefebvre</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Aimé</t>
+          <t>Gilles</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -2125,16 +850,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ribeiro</t>
+          <t>Devaux</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Alfred</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -2149,16 +874,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Romero</t>
+          <t>Labbe</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Julio</t>
+          <t>David</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -2173,16 +898,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Leroy</t>
+          <t>Gomes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Benoît</t>
+          <t>Aimé</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2197,16 +922,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>Ribeiro</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gilles</t>
+          <t>Alfred</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -2221,20 +946,20 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Garland</t>
+          <t>Romero</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gamelin</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2245,16 +970,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lemaire</t>
+          <t>Leroy</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Alain</t>
+          <t>Benoît</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -2269,20 +994,20 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Oumiri</t>
+          <t>Dias</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hakim</t>
+          <t>Gilles</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2293,16 +1018,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Allain</t>
+          <t>Lemaire</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Clothilde</t>
+          <t>Alain</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -3531,16 +2256,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3548,16 +2273,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3565,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
         <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3582,16 +2307,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3599,16 +2324,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3616,16 +2341,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>9</v>
       </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -3633,16 +2358,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -3650,16 +2375,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -3667,16 +2392,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3684,16 +2409,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3701,16 +2426,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -3718,16 +2443,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -3735,16 +2460,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -3752,16 +2477,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -3769,10 +2494,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
         <v>9</v>
@@ -3786,10 +2511,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
         <v>9</v>
@@ -3803,16 +2528,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
         <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -3820,16 +2545,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="E19" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -3837,16 +2562,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
         <v>10</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -3854,16 +2579,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -3871,16 +2596,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -3888,16 +2613,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -3905,16 +2630,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
         <v>9</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3963,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3972,7 +2697,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>b"\x17\xe9\x7f\x84}\x86\x10)\x02R\xc9\xea\xab\xfc\x9bu!\xbc{0`\x9f\x1c\x99\x9eT\x1b\xcbL\x01\xbd\xe0y\xee\xa9\xc3}\xab\xd7\x81\xae\\6\x9a\xecvIj'\xdb\xde\x1c\x1d\xefsPC\x02\xf4\xa5\x0b\x80%+"</t>
+          <t>b'\xf8\x9b!\x10\xc2\t\xefC\xef\xe5M\x14\xea\x08\x17\xe3\x82\x10\xbal\xb7\xad\x00\x83\x83\x88\x8f\x93\x88\xae\xef;\x81J`@\x04\x14\xa8+\x90\xbc]HBZ\\\xf2\xe3\xdf\xe9\xdb\xb7\xdcrB\x8d^\x80\xcc$A\xb9\xaf'</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -3984,16 +2709,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>prof@test.com</t>
+          <t>test@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>b"\x1a\xb0\xa2\xe7\xba\xf9g\x1a\x8b8^\xaa\xb5\x19\x1d\xef\xde9\xceo\xf3\x93F=\x07\x12\xa4\xd9teF\x82\xe1\x889\xb9\xa2\x9a\xa1\xb5\xdd\t\xd4\xfd1/\xdd3{\x96t\x191\xc6'\xa2\xb7\xd4(\xc3\xd5\xf2\x8b\xf7"</t>
+          <t>b'\xd6\x18\x00P\xc9\xeem\xc7\x11\xf2\x93\x99f\xde~0b\x9d\x8d\xca;\x1c\xe3\xaa\xd9c\\\x0c\xc0\x1e\x9f\xb1O^\x1e\xf1\x01}B][}\x97D6\xcf\x0f\xba\x85X~G\xa6C9\xe9\xb8\xf8\xce\xbf\xff\xb6\xb9I'</t>
         </is>
       </c>
       <c r="E3" t="b">

--- a/second_tour_website/website/upload/donees.xlsx
+++ b/second_tour_website/website/upload/donees.xlsx
@@ -23,10 +23,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -65,12 +62,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,104 +432,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id_creneau</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>id_candidat</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>id_matiere</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>id_salle</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>debut_preparation</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>fin_preparation</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fin</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44562.33333333334</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44562.35416666666</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>44562.375</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44562.39583333334</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>44562.41666666666</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>44562.4375</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -544,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,21 +499,615 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HUORT</t>
+          <t>Oumiri</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Hakim</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Garland</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gamelin</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Huon</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Guimond</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pinette</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Agathe</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Allain</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Clothilde</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Jalbert</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Arienne</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bernard</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Noémie</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Gousse</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Le mendes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Isaac</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Guillot</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Foucher</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Duhamel</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Claire</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Pons</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sebastien</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Noémie</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Lefebvre</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Gilles</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Devaux</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Labbe</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Gomes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Aimé</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ribeiro</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Alfred</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Romero</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Leroy</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Benoît</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Dias</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Gilles</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Lemaire</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Alain</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -622,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,16 +1161,226 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PROF</t>
+          <t>De Renaud</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>prof</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pelletier-aubert</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aimé</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Langlois</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Marie-Charlotte</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Lacroix</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Goncalves</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Denis</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Legendre</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rémy</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Périer</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Valérie</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Devaux</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Jacques</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Teixera</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Pénélope</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +1394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,7 +1423,150 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D204</t>
+          <t>D100</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>D101</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>D005</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>D006</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D007</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D008</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>D009</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D011</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>D012</t>
         </is>
       </c>
     </row>
@@ -728,7 +1581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,15 +1620,61 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Générale</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mathématiques</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Générale</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Physique</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Technologique</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>STI2D</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -788,7 +1687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,12 +1754,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Français</t>
+          <t>Mathématiques</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Français - STI2D</t>
+          <t>Mathématiques - Mathématiques/SVT</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -889,12 +1788,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Philosophie</t>
+          <t>SVT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Philosophie - STI2D</t>
+          <t>SVT - Mathématiques/SVT</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -910,6 +1809,350 @@
         <v>40</v>
       </c>
       <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Français</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Français - Mathématiques/SVT</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Philosophie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Philosophie - Mathématiques/SVT</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Physique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Physique - Physique/SI</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" t="n">
+        <v>40</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SI - Physique/SI</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>60</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" t="n">
+        <v>40</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Français</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Français - Physique/SI</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>40</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Philosophie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Philosophie - Physique/SI</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>40</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" t="n">
+        <v>40</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2I2D</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2I2D - STI2D</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>60</v>
+      </c>
+      <c r="G10" t="n">
+        <v>60</v>
+      </c>
+      <c r="H10" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mathématiques/Physique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Mathématiques/Physique - STI2D</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Français</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Français - STI2D</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>30</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H12" t="n">
+        <v>30</v>
+      </c>
+      <c r="I12" t="n">
+        <v>40</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Philosophie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Philosophie - STI2D</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40</v>
+      </c>
+      <c r="H13" t="n">
+        <v>30</v>
+      </c>
+      <c r="I13" t="n">
+        <v>40</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -922,7 +2165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,6 +2210,380 @@
       </c>
       <c r="E2" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,37 +2646,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>b'\xe6V#\xd8\x8c\xa75\xa8e\x8d\xb3\xcd0\xa9e\x7f\xc0G\xd8\x93\xbe3e7\x16H\x99[\xc9\x15\xdb\x023,c\x1f\x97\xa3\xc2\x94\xf5A\xe2[\x18\x86\xc4\x95{\x92]\xdf\xcbpx\xa0\xf2\xe7\x91\x88\xff/\xaaJ'</t>
+          <t>b'\xd7_\x93\x90c!\xf4\xb3.\x93\x05\x0c-\x9a\xce;\x06\x82\xb6\xd4b\xf6\x95\x8e\x02\\~aiab\xb3I\xd3\xaa\x98\xfc\x9f\xfdJ\xa4\x80\xfa\x1dX)\xb9\xea\xdf]\xc3\xb5\nV\xf6Q\xfa\xe4Y\xf2\xad\xf4+\xa0'</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>prof@test.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>b'\xd4\x88\xd4\x1d\x9a\xbf\xda\xa0\x1e\tL\xcaF\x96\xcca\xce\xf6\x93\x9c;\xfc\xe2!\xeext\xceR\x1dg\xb2\x90\x02\xd4\x0b\xb4\xaf\\y\x9d\x8c?\x8b\x84k\xa95y\x92k\x98j\xa5n\xd3\xed\xed\xafb\x9e\xab\xbf\r'</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/second_tour_website/website/upload/donees.xlsx
+++ b/second_tour_website/website/upload/donees.xlsx
@@ -7,14 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRENEAU" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CANDIDATS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PROFESSEUR" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SALLE" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERIE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MATIERES" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CHOIX_MATIERE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UTILISATEURS" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="creneau" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="candidat" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="professeur" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="salle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="serie" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="matiere" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="choix_matiere" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utilisateur" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="liste_matiere" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="horaire" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,14 +434,2395 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id_creneau</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>id_candidat</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>id_matiere</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>id_salle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debut_preparation</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>fin_preparation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>fin</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>320</v>
+      </c>
+      <c r="C2" t="n">
+        <v>448</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1490</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1674</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321</v>
+      </c>
+      <c r="C3" t="n">
+        <v>448</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1489</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1673</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>322</v>
+      </c>
+      <c r="C4" t="n">
+        <v>447</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1503</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1687</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>323</v>
+      </c>
+      <c r="C5" t="n">
+        <v>447</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1491</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1675</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>324</v>
+      </c>
+      <c r="C6" t="n">
+        <v>445</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1490</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1674</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>325</v>
+      </c>
+      <c r="C7" t="n">
+        <v>445</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1686</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>326</v>
+      </c>
+      <c r="C8" t="n">
+        <v>443</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1492</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1676</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>327</v>
+      </c>
+      <c r="C9" t="n">
+        <v>443</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1503</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1687</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>328</v>
+      </c>
+      <c r="C10" t="n">
+        <v>442</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1686</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>329</v>
+      </c>
+      <c r="C11" t="n">
+        <v>442</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1501</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>330</v>
+      </c>
+      <c r="C12" t="n">
+        <v>441</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1489</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1673</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>331</v>
+      </c>
+      <c r="C13" t="n">
+        <v>441</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1501</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>332</v>
+      </c>
+      <c r="C14" t="n">
+        <v>438</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1503</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1687</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:50:00 2022</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>333</v>
+      </c>
+      <c r="C15" t="n">
+        <v>438</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1504</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:40:00 2022</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 12:20:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>334</v>
+      </c>
+      <c r="C16" t="n">
+        <v>437</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1490</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1674</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>335</v>
+      </c>
+      <c r="C17" t="n">
+        <v>437</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1686</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>336</v>
+      </c>
+      <c r="C18" t="n">
+        <v>430</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1501</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>337</v>
+      </c>
+      <c r="C19" t="n">
+        <v>430</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1686</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>338</v>
+      </c>
+      <c r="C20" t="n">
+        <v>431</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1683</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:40:00 2022</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:20:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>339</v>
+      </c>
+      <c r="C21" t="n">
+        <v>431</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1487</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1671</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:40:00 2022</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:20:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>340</v>
+      </c>
+      <c r="C22" t="n">
+        <v>432</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1684</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:40:00 2022</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:20:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>341</v>
+      </c>
+      <c r="C23" t="n">
+        <v>432</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1683</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:40:00 2022</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:20:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>342</v>
+      </c>
+      <c r="C24" t="n">
+        <v>433</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1488</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1672</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>343</v>
+      </c>
+      <c r="C25" t="n">
+        <v>433</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1487</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1671</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>344</v>
+      </c>
+      <c r="C26" t="n">
+        <v>434</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1498</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1682</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>345</v>
+      </c>
+      <c r="C27" t="n">
+        <v>434</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1486</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1670</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>346</v>
+      </c>
+      <c r="C28" t="n">
+        <v>435</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1494</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:40:00 2022</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:20:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>347</v>
+      </c>
+      <c r="C29" t="n">
+        <v>435</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1505</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1689</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:40:00 2022</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:20:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>348</v>
+      </c>
+      <c r="C30" t="n">
+        <v>436</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1488</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1672</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>349</v>
+      </c>
+      <c r="C31" t="n">
+        <v>436</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1684</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>350</v>
+      </c>
+      <c r="C32" t="n">
+        <v>439</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1494</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>351</v>
+      </c>
+      <c r="C33" t="n">
+        <v>439</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1505</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1689</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 12:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>352</v>
+      </c>
+      <c r="C34" t="n">
+        <v>440</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1684</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>353</v>
+      </c>
+      <c r="C35" t="n">
+        <v>440</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1683</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 12:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>354</v>
+      </c>
+      <c r="C36" t="n">
+        <v>444</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1508</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1692</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:20:00 2022</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>355</v>
+      </c>
+      <c r="C37" t="n">
+        <v>444</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1495</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1679</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:10:00 2022</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:50:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>356</v>
+      </c>
+      <c r="C38" t="n">
+        <v>446</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1488</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1672</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>357</v>
+      </c>
+      <c r="C39" t="n">
+        <v>446</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1684</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Tue Feb 01 11:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id_horaire</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>horaire_arr1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>horaire_dep1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>horaire_arr2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>horaire_dep2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>horaire_arr3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>horaire_dep3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>id_professeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1145</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1146</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1147</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1148</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1149</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1152</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1153</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1154</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1155</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1156</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1157</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1158</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1159</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1160</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1161</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1162</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1163</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1164</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1165</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1166</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1169</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>2271</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -450,7 +2833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,25 +2878,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oumiri</t>
+          <t>Aimée</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hakim</t>
+          <t>Antoine</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
+        <v>600</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -522,25 +2905,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Garland</t>
+          <t>Dorothée</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gamelin</t>
+          <t>Guillou</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>599</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -549,25 +2932,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>432</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Huon</t>
+          <t>Alix</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Guimond</t>
+          <t>Labbé</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
+        <v>599</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,25 +2959,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>433</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pinette</t>
+          <t>Constance</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Agathe</t>
+          <t>De Sousa</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="b">
+        <v>599</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -603,25 +2986,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>434</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Allain</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Clothilde</t>
+          <t>De Sousa</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="b">
+        <v>598</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -630,25 +3013,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>435</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jalbert</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Arienne</t>
+          <t>Mace</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
+        <v>602</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -657,25 +3040,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>436</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bernard</t>
+          <t>Colette</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Noémie</t>
+          <t>Reynaud</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="b">
+        <v>599</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -684,25 +3067,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>437</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gousse</t>
+          <t>Édith</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maurice</t>
+          <t>Laurent</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
+        <v>600</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -711,25 +3094,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>438</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Le mendes</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Isaac</t>
+          <t>Morel</t>
         </is>
       </c>
       <c r="E10" t="n">
+        <v>601</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
+      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,25 +3121,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>439</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Guillot</t>
+          <t>Élodie</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Henri</t>
+          <t>Fernandez</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
+        <v>602</v>
+      </c>
+      <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -765,25 +3148,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Foucher</t>
+          <t>Inès</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="b">
+        <v>599</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="b">
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -792,25 +3175,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Duhamel</t>
+          <t>Marie</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Claire</t>
+          <t>Maréchal</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="b">
+        <v>600</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
-      <c r="G13" t="b">
+      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -819,25 +3202,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>442</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pons</t>
+          <t>Anastasie</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sebastien</t>
+          <t>Cousin</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="b">
+        <v>600</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
-      <c r="G14" t="b">
+      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -846,25 +3229,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>443</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Bertrand</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Noémie</t>
+          <t>Gosselin</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="b">
+        <v>601</v>
+      </c>
+      <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="b">
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -873,25 +3256,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lefebvre</t>
+          <t>Paulette</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Gilles</t>
+          <t>Laroche</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
+        <v>603</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -900,25 +3283,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>445</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Devaux</t>
+          <t>Hortense</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Barre</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="b">
+        <v>600</v>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="G17" t="b">
+      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -927,25 +3310,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>446</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Labbe</t>
+          <t>Agnès</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Michaud</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" t="b">
+        <v>599</v>
+      </c>
+      <c r="F18" t="n">
         <v>0</v>
       </c>
-      <c r="G18" t="b">
+      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,25 +3337,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>447</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gomes</t>
+          <t>Éléonore</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Aimé</t>
+          <t>Lebreton</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="b">
+        <v>601</v>
+      </c>
+      <c r="F19" t="n">
         <v>0</v>
       </c>
-      <c r="G19" t="b">
+      <c r="G19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -981,133 +3364,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ribeiro</t>
+          <t>Marianne</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Alfred</t>
+          <t>Parent</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" t="b">
+        <v>600</v>
+      </c>
+      <c r="F20" t="n">
         <v>0</v>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Romero</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Leroy</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Benoît</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Dias</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Gilles</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Lemaire</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Alain</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
+      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,7 +3397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,20 +3432,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2246</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>De Renaud</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Lemonnier</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="3">
@@ -1178,20 +3453,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>2247</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pelletier-aubert</t>
+          <t>Matthieu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aimé</t>
+          <t>Ribeiro</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="4">
@@ -1199,20 +3474,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2248</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Langlois</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Marie-Charlotte</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="5">
@@ -1220,20 +3495,20 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2249</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lacroix</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Daisy</t>
+          <t>Bonnin</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="6">
@@ -1241,20 +3516,20 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2250</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Goncalves</t>
+          <t>Inès</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Bouvet</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="7">
@@ -1262,20 +3537,20 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2251</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Fischer</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="8">
@@ -1283,20 +3558,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2252</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Legendre</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rémy</t>
+          <t>Riou</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="9">
@@ -1304,20 +3579,20 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2253</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>Gérard</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="10">
@@ -1325,20 +3600,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>2254</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Périer</t>
+          <t>Isaac</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Valérie</t>
+          <t>Gay</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="11">
@@ -1346,20 +3621,20 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>2255</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Devaux</t>
+          <t>Thérèse</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Grenier</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="12">
@@ -1367,20 +3642,335 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>2256</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Éric</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Weber</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Teixera</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Pénélope</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="B13" t="n">
+        <v>2257</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nicole</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Salmon</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2258</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Michèle</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Guillot</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2259</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Jacques</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Le Goff</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2260</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Hélène</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Rodrigues</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2261</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Renée</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Maillet</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2262</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Émile</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2263</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Leclercq</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2264</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sophie</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Roger</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2265</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Christelle</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Bertrand</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2266</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Menard</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2267</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Catherine</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Lacombe</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2268</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Arthur</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Dufour</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2269</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cécile</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Vallée</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2270</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Adrienne</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Gilbert</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2271</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Pauline</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Duval</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1688</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +3984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1667</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1432,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1668</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1445,11 +4035,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1669</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D000</t>
         </is>
       </c>
     </row>
@@ -1458,11 +4048,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1670</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
@@ -1471,11 +4061,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1671</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D005</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
@@ -1484,11 +4074,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1672</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D006</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
@@ -1497,11 +4087,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1673</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D007</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
@@ -1510,11 +4100,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>1674</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D008</t>
+          <t>D005</t>
         </is>
       </c>
     </row>
@@ -1523,11 +4113,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>1675</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D009</t>
+          <t>D006</t>
         </is>
       </c>
     </row>
@@ -1536,11 +4126,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>1676</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D010</t>
+          <t>D007</t>
         </is>
       </c>
     </row>
@@ -1549,11 +4139,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>1677</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D011</t>
+          <t>D008</t>
         </is>
       </c>
     </row>
@@ -1562,11 +4152,193 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>1678</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>D009</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="B14" t="n">
+        <v>1679</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>D011</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1681</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>D012</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1682</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D013</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1683</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>D014</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1684</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>D015</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1685</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D016</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1686</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D017</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1687</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>D018</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>D019</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1689</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>D020</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>D021</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1691</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>D022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1692</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>D023</t>
         </is>
       </c>
     </row>
@@ -1581,7 +4353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1616,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>598</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1625,12 +4397,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>SVT</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Mathématiques</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SVT</t>
         </is>
       </c>
     </row>
@@ -1639,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>599</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1648,12 +4420,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Physique</t>
+          <t>SES</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>Mathématiques</t>
         </is>
       </c>
     </row>
@@ -1662,19 +4434,84 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>600</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Technologique</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>STMG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B5" t="n">
+        <v>601</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Technologique</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>STI2D</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>602</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Générale</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Physique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mathématiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>603</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Générale</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mathématiques</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1687,7 +4524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1747,19 +4584,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1485</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>598</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mathématiques</t>
+          <t>Francais</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mathématiques - Mathématiques/SVT</t>
+          <t>Francais - SVT/Mathématiques</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1781,19 +4618,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1486</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>598</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SVT</t>
+          <t>Philosophie</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SVT - Mathématiques/SVT</t>
+          <t>Philosophie - SVT/Mathématiques</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1815,19 +4652,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1487</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>599</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Français</t>
+          <t>Francais</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Français - Mathématiques/SVT</t>
+          <t>Francais - SES/Mathématiques</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1849,10 +4686,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1488</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>599</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1861,7 +4698,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Philosophie - Mathématiques/SVT</t>
+          <t>Philosophie - SES/Mathématiques</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1883,19 +4720,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1489</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Physique</t>
+          <t>Francais</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Physique - Physique/SI</t>
+          <t>Francais - STMG</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1917,26 +4754,26 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1490</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>Philosophie</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SI - Physique/SI</t>
+          <t>Philosophie - STMG</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H7" t="n">
         <v>30</v>
@@ -1944,28 +4781,26 @@
       <c r="I7" t="n">
         <v>40</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1491</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Français</t>
+          <t>Francais</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Français - Physique/SI</t>
+          <t>Francais - STI2D</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1987,10 +4822,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>1492</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1999,7 +4834,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Philosophie - Physique/SI</t>
+          <t>Philosophie - STI2D</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2021,26 +4856,26 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>1493</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>602</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2I2D</t>
+          <t>Francais</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2I2D - STI2D</t>
+          <t>Francais - Physique/Mathématiques</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H10" t="n">
         <v>30</v>
@@ -2048,28 +4883,26 @@
       <c r="I10" t="n">
         <v>40</v>
       </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>1494</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>602</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mathématiques/Physique</t>
+          <t>Philosophie</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mathématiques/Physique - STI2D</t>
+          <t>Philosophie - Physique/Mathématiques</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2091,19 +4924,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>1495</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>603</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Français</t>
+          <t>Francais</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Français - STI2D</t>
+          <t>Francais - Mathématiques/SI</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2125,10 +4958,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>1496</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>603</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2137,7 +4970,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Philosophie - STI2D</t>
+          <t>Philosophie - Mathématiques/SI</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2153,6 +4986,418 @@
         <v>40</v>
       </c>
       <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1497</v>
+      </c>
+      <c r="C14" t="n">
+        <v>598</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SVT</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SVT - SVT/Mathématiques</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>30</v>
+      </c>
+      <c r="G14" t="n">
+        <v>40</v>
+      </c>
+      <c r="H14" t="n">
+        <v>30</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1498</v>
+      </c>
+      <c r="C15" t="n">
+        <v>598</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mathématiques</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Mathématiques - SVT/Mathématiques</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40</v>
+      </c>
+      <c r="H15" t="n">
+        <v>30</v>
+      </c>
+      <c r="I15" t="n">
+        <v>40</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1499</v>
+      </c>
+      <c r="C16" t="n">
+        <v>599</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SES</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SES - SES/Mathématiques</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" t="n">
+        <v>40</v>
+      </c>
+      <c r="H16" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" t="n">
+        <v>40</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C17" t="n">
+        <v>599</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mathématiques</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mathématiques - SES/Mathématiques</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>30</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="n">
+        <v>40</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1501</v>
+      </c>
+      <c r="C18" t="n">
+        <v>600</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SGN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SGN - STMG</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1502</v>
+      </c>
+      <c r="C19" t="n">
+        <v>600</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mathématiques/Physique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mathématiques/Physique - STMG</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>30</v>
+      </c>
+      <c r="G19" t="n">
+        <v>40</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" t="n">
+        <v>40</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1503</v>
+      </c>
+      <c r="C20" t="n">
+        <v>601</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2I2D</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2I2D - STI2D</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>60</v>
+      </c>
+      <c r="G20" t="n">
+        <v>80</v>
+      </c>
+      <c r="H20" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" t="n">
+        <v>40</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C21" t="n">
+        <v>601</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mathématiques/Physique</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Mathématiques/Physique - STI2D</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>30</v>
+      </c>
+      <c r="G21" t="n">
+        <v>40</v>
+      </c>
+      <c r="H21" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" t="n">
+        <v>40</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1505</v>
+      </c>
+      <c r="C22" t="n">
+        <v>602</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Physique</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Physique - Physique/Mathématiques</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>30</v>
+      </c>
+      <c r="G22" t="n">
+        <v>40</v>
+      </c>
+      <c r="H22" t="n">
+        <v>30</v>
+      </c>
+      <c r="I22" t="n">
+        <v>40</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1506</v>
+      </c>
+      <c r="C23" t="n">
+        <v>602</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mathématiques</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mathématiques - Physique/Mathématiques</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>30</v>
+      </c>
+      <c r="G23" t="n">
+        <v>40</v>
+      </c>
+      <c r="H23" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" t="n">
+        <v>40</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1507</v>
+      </c>
+      <c r="C24" t="n">
+        <v>603</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mathématiques</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Mathématiques - Mathématiques/SI</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>30</v>
+      </c>
+      <c r="G24" t="n">
+        <v>40</v>
+      </c>
+      <c r="H24" t="n">
+        <v>30</v>
+      </c>
+      <c r="I24" t="n">
+        <v>40</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1508</v>
+      </c>
+      <c r="C25" t="n">
+        <v>603</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SI - Mathématiques/SI</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>60</v>
+      </c>
+      <c r="G25" t="n">
+        <v>80</v>
+      </c>
+      <c r="H25" t="n">
+        <v>30</v>
+      </c>
+      <c r="I25" t="n">
+        <v>40</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1668</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2165,7 +5410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2200,16 +5445,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>409</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>430</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="3">
@@ -2217,16 +5462,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>410</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>1499</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="4">
@@ -2234,16 +5479,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>411</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>432</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="5">
@@ -2251,16 +5496,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>412</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>433</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>1488</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="6">
@@ -2268,16 +5513,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>413</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>434</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>1498</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="7">
@@ -2285,16 +5530,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>414</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>435</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>1494</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="8">
@@ -2302,16 +5547,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>415</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>436</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>1488</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9">
@@ -2319,16 +5564,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>437</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>1490</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="10">
@@ -2336,16 +5581,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>417</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>438</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1503</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="11">
@@ -2353,16 +5598,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>418</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>439</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>1494</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="12">
@@ -2370,16 +5615,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>419</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>1500</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="13">
@@ -2387,16 +5632,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>420</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>1489</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="14">
@@ -2404,16 +5649,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>421</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>442</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>1502</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="15">
@@ -2421,16 +5666,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>422</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>443</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>1492</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="16">
@@ -2438,16 +5683,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>423</v>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>1508</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="17">
@@ -2455,16 +5700,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>424</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>445</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>1490</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="18">
@@ -2472,16 +5717,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>425</v>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>446</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>1488</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19">
@@ -2489,16 +5734,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>426</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>447</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>1503</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="20">
@@ -2506,84 +5751,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>427</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>1490</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="n">
-        <v>9</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>21</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>22</v>
-      </c>
-      <c r="D23" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>23</v>
-      </c>
-      <c r="D24" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" t="n">
-        <v>9</v>
+        <v>1489</v>
       </c>
     </row>
   </sheetData>
@@ -2608,7 +5785,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>id_utilisateur</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2637,22 +5814,422 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>113</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>admin@ac-poitiers.fr</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$p5k2$3e8$AfpOzesj$.KoGR.raCRkA3gne.aZrF1bQobRfdSIH</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>admin@ac-poitiers.fr</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>b'\xd7_\x93\x90c!\xf4\xb3.\x93\x05\x0c-\x9a\xce;\x06\x82\xb6\xd4b\xf6\x95\x8e\x02\\~aiab\xb3I\xd3\xaa\x98\xfc\x9f\xfdJ\xa4\x80\xfa\x1dX)\xb9\xea\xdf]\xc3\xb5\nV\xf6Q\xfa\xe4Y\xf2\xad\xf4+\xa0'</t>
-        </is>
-      </c>
-      <c r="E2" t="b">
+      <c r="F2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id_liste_matiere</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>id_professeur</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>id_matiere</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2246</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2247</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2248</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2249</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2251</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2252</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2253</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2254</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2255</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2256</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2257</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1033</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2258</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2259</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2260</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2261</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2262</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2270</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2263</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2264</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1041</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2271</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1042</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2265</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1043</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2266</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2267</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2268</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1046</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2269</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1508</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
